--- a/public/data/soil/soil_table_madagascar.xlsx
+++ b/public/data/soil/soil_table_madagascar.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -698,28 +698,28 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>15091.9</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>641144.1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>179334.2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>13.677</v>
+        <v>2.844</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>394.61</v>
+        <v>412.98</v>
       </c>
       <c r="K2" t="n">
-        <v>94.199</v>
+        <v>102.491</v>
       </c>
     </row>
     <row r="3">
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>103354.4</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>663181.4</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -751,10 +751,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>64.327</v>
+        <v>48.089</v>
       </c>
       <c r="K3" t="n">
-        <v>370.84</v>
+        <v>370.987</v>
       </c>
     </row>
     <row r="4">
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>276626</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>91873.2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>253.521</v>
+        <v>269.666</v>
       </c>
       <c r="K4" t="n">
-        <v>93.734</v>
+        <v>72.332</v>
       </c>
     </row>
     <row r="5">
@@ -803,28 +803,28 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>6489.9</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>562941.2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>299914.9</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>8.663</v>
+        <v>10.949</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>544.613</v>
+        <v>522.739</v>
       </c>
       <c r="K5" t="n">
-        <v>229.222</v>
+        <v>225.65</v>
       </c>
     </row>
     <row r="6">
@@ -838,28 +838,28 @@
         <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>101775.1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>392.2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>134600.7</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>149280.3</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.253</v>
+        <v>161.74</v>
       </c>
       <c r="I6" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>132.964</v>
+        <v>176.673</v>
       </c>
       <c r="K6" t="n">
-        <v>141.769</v>
+        <v>134.434</v>
       </c>
     </row>
     <row r="7">
@@ -873,28 +873,28 @@
         <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>459447.2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4804.1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>58387.1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>101989.9</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>488.019</v>
+        <v>565.257</v>
       </c>
       <c r="I7" t="n">
-        <v>4.045</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>57.231</v>
+        <v>47.98</v>
       </c>
       <c r="K7" t="n">
-        <v>76.462</v>
+        <v>78.085</v>
       </c>
     </row>
     <row r="8">
@@ -908,28 +908,28 @@
         <v>39</v>
       </c>
       <c r="D8" t="n">
-        <v>61494.1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>251.2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>257357.6</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>316293.3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>67.632</v>
+        <v>68.331</v>
       </c>
       <c r="I8" t="n">
-        <v>0.385</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>238.096</v>
+        <v>282.708</v>
       </c>
       <c r="K8" t="n">
-        <v>153.995</v>
+        <v>137.787</v>
       </c>
     </row>
     <row r="9">
@@ -943,28 +943,28 @@
         <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>189330.3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>384438.3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>67223.7</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>195.153</v>
+        <v>185.498</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>408.473</v>
+        <v>457.783</v>
       </c>
       <c r="K9" t="n">
-        <v>61.255</v>
+        <v>54.883</v>
       </c>
     </row>
     <row r="10">
@@ -978,28 +978,28 @@
         <v>41</v>
       </c>
       <c r="D10" t="n">
-        <v>66700.4</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>238584.1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>484897.3</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>76.191</v>
+        <v>78.389</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>194.996</v>
+        <v>212.553</v>
       </c>
       <c r="K10" t="n">
-        <v>350.158</v>
+        <v>333.548</v>
       </c>
     </row>
     <row r="11">
@@ -1013,28 +1013,28 @@
         <v>42</v>
       </c>
       <c r="D11" t="n">
-        <v>37462.1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>141218.5</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>639593.3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>21.569</v>
+        <v>24.83</v>
       </c>
       <c r="I11" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>66.217</v>
+        <v>57.545</v>
       </c>
       <c r="K11" t="n">
-        <v>323.459</v>
+        <v>332.445</v>
       </c>
     </row>
     <row r="12">
@@ -1048,28 +1048,28 @@
         <v>43</v>
       </c>
       <c r="D12" t="n">
-        <v>637583.3</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>195305.1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>114.3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>779.702</v>
+        <v>815.493</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>200.054</v>
+        <v>233.278</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1089,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>240761.7</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>613917.6</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>88.566</v>
+        <v>94.074</v>
       </c>
       <c r="K13" t="n">
-        <v>175.394</v>
+        <v>190.142</v>
       </c>
     </row>
     <row r="14">
@@ -1118,28 +1118,28 @@
         <v>46</v>
       </c>
       <c r="D14" t="n">
-        <v>1352.7</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>297842</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>451822.6</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.169</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>222.153</v>
+        <v>303.818</v>
       </c>
       <c r="K14" t="n">
-        <v>306.785</v>
+        <v>276.084</v>
       </c>
     </row>
     <row r="15">
@@ -1153,28 +1153,28 @@
         <v>47</v>
       </c>
       <c r="D15" t="n">
-        <v>1997</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>202361.1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>780077.6</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.421</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>79.538</v>
+        <v>75.105</v>
       </c>
       <c r="K15" t="n">
-        <v>297.335</v>
+        <v>323.519</v>
       </c>
     </row>
     <row r="16">
@@ -1188,28 +1188,28 @@
         <v>48</v>
       </c>
       <c r="D16" t="n">
-        <v>235287.3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1471.8</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>609713.2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>706350</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>137.518</v>
+        <v>160.659</v>
       </c>
       <c r="I16" t="n">
-        <v>1.164</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>442.361</v>
+        <v>560.124</v>
       </c>
       <c r="K16" t="n">
-        <v>599.483</v>
+        <v>518.968</v>
       </c>
     </row>
     <row r="17">
@@ -1223,28 +1223,28 @@
         <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>240664.9</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>363454.3</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>396781.4</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>163.14</v>
+        <v>196.988</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>270.948</v>
+        <v>247.756</v>
       </c>
       <c r="K17" t="n">
-        <v>272.054</v>
+        <v>317.796</v>
       </c>
     </row>
     <row r="18">
@@ -1258,28 +1258,28 @@
         <v>51</v>
       </c>
       <c r="D18" t="n">
-        <v>432400.1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>12487.5</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1353.5</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>597.386</v>
+        <v>767.867</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>9.247</v>
+        <v>5.463</v>
       </c>
       <c r="K18" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1293,28 +1293,28 @@
         <v>52</v>
       </c>
       <c r="D19" t="n">
-        <v>607690.3</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>74.5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>132619.8</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>504.311</v>
+        <v>517.906</v>
       </c>
       <c r="I19" t="n">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>114.291</v>
+        <v>136.989</v>
       </c>
       <c r="K19" t="n">
-        <v>0.059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1334,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>73.5</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>707248.4</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>634.342</v>
+        <v>649.458</v>
       </c>
     </row>
     <row r="21">
@@ -1363,28 +1363,28 @@
         <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>36536.1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158876.3</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>706145.4</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>23.988</v>
+        <v>25.124</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>138.813</v>
+        <v>161.878</v>
       </c>
       <c r="K21" t="n">
-        <v>363.433</v>
+        <v>379.871</v>
       </c>
     </row>
     <row r="22">
@@ -1398,28 +1398,28 @@
         <v>56</v>
       </c>
       <c r="D22" t="n">
-        <v>216.9</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>23.9</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>20266.6</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1743246.5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.284</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.392</v>
+        <v>0.291</v>
       </c>
       <c r="K22" t="n">
-        <v>1023.062</v>
+        <v>1077.691</v>
       </c>
     </row>
     <row r="23">
@@ -1433,28 +1433,28 @@
         <v>57</v>
       </c>
       <c r="D23" t="n">
-        <v>3656.2</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>202503.4</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>946772.8</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>4.591</v>
+        <v>0.391</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>123.71</v>
+        <v>116.616</v>
       </c>
       <c r="K23" t="n">
-        <v>497.422</v>
+        <v>532.998</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_madagascar.xlsx
+++ b/public/data/soil/soil_table_madagascar.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -698,16 +698,16 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>532.6</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>40787.7</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6651.3</v>
       </c>
       <c r="H2" t="n">
         <v>2.844</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8623.9</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>39893.8</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>51544.9</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>7071.2</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -803,16 +803,16 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1667.3</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>108971.6</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>14746.2</v>
       </c>
       <c r="H5" t="n">
         <v>10.949</v>
@@ -838,16 +838,16 @@
         <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>24545.6</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>8687.9</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>9180.6</v>
       </c>
       <c r="H6" t="n">
         <v>161.74</v>
@@ -873,16 +873,16 @@
         <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>39141.9</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1923.6</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3293.2</v>
       </c>
       <c r="H7" t="n">
         <v>565.257</v>
@@ -908,16 +908,16 @@
         <v>39</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>17052.7</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>30919.6</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>20031</v>
       </c>
       <c r="H8" t="n">
         <v>68.331</v>
@@ -943,16 +943,16 @@
         <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>21129.4</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>35512</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1315.2</v>
       </c>
       <c r="H9" t="n">
         <v>185.498</v>
@@ -978,16 +978,16 @@
         <v>41</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>10086.8</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24772.9</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>22383.3</v>
       </c>
       <c r="H10" t="n">
         <v>78.389</v>
@@ -1013,16 +1013,16 @@
         <v>42</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3729.7</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1883.7</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>10271.7</v>
       </c>
       <c r="H11" t="n">
         <v>24.83</v>
@@ -1048,13 +1048,13 @@
         <v>43</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>111081.9</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>12743.4</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1089,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>7845.6</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9543.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1124,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>24525.2</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>11700.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>5096.9</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>12650.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1188,16 +1188,16 @@
         <v>48</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>15558.7</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>20795.6</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>12628.3</v>
       </c>
       <c r="H16" t="n">
         <v>160.659</v>
@@ -1223,16 +1223,16 @@
         <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>25265.8</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>10965.6</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15986.3</v>
       </c>
       <c r="H17" t="n">
         <v>196.988</v>
@@ -1258,16 +1258,16 @@
         <v>51</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>85091.8</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>396.5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>63.7</v>
       </c>
       <c r="H18" t="n">
         <v>767.867</v>
@@ -1293,13 +1293,13 @@
         <v>52</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>89893.3</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>17745.6</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>84611.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1363,16 +1363,16 @@
         <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4397</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>9103.1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>29327.3</v>
       </c>
       <c r="H21" t="n">
         <v>25.124</v>
@@ -1404,10 +1404,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>147.6</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>159812.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1433,16 +1433,16 @@
         <v>57</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>125.9</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>8352.6</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>46303.6</v>
       </c>
       <c r="H23" t="n">
         <v>0.391</v>
